--- a/data/trans_orig/P79A3_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P79A3_2023-Edad-trans_orig.xlsx
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4859</v>
+        <v>4318</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1963015582375723</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8444514656393366</v>
+        <v>0.7504221542269445</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>5476</v>
+        <v>5171</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2366946474111113</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6866242975647714</v>
+        <v>0.6484348040510122</v>
       </c>
     </row>
     <row r="11">
@@ -1182,7 +1182,7 @@
         <v>4624</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>907</v>
+        <v>1225</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>5754</v>
@@ -1191,7 +1191,7 @@
         <v>0.8036984417624277</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1576278584266917</v>
+        <v>0.212880117555283</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1224,16 +1224,16 @@
         <v>6087</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2419</v>
+        <v>2803</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>7975</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7633053525888885</v>
+        <v>0.7633053525888887</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3033319199345292</v>
+        <v>0.3514678789431024</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -1341,19 +1341,19 @@
         <v>5658</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3515</v>
+        <v>2887</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7724</v>
+        <v>7604</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.6825462391419175</v>
+        <v>0.6825462391419176</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4240690359427108</v>
+        <v>0.3483430260242349</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9318744158787793</v>
+        <v>0.9173405962849512</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>8</v>
@@ -1362,19 +1362,19 @@
         <v>5657</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2707</v>
+        <v>2507</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>8676</v>
+        <v>8772</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.505674133687846</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2419134866576121</v>
+        <v>0.2240633400079566</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7754574164278779</v>
+        <v>0.7840511527900286</v>
       </c>
     </row>
     <row r="14">
@@ -1404,19 +1404,19 @@
         <v>2631</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>565</v>
+        <v>685</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>4774</v>
+        <v>5402</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3174537608580824</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06812558412122047</v>
+        <v>0.08265940371504876</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5759309640572892</v>
+        <v>0.6516569739757651</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6</v>
@@ -1425,19 +1425,19 @@
         <v>5531</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2512</v>
+        <v>2416</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>8481</v>
+        <v>8681</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.494325866312154</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2245425835721211</v>
+        <v>0.2159488472099714</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7580865133423876</v>
+        <v>0.7759366599920433</v>
       </c>
     </row>
     <row r="15">
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2746</v>
+        <v>2567</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1733813388908425</v>
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7047285879934221</v>
+        <v>0.6586152615350002</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -1571,19 +1571,19 @@
         <v>2576</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>697</v>
+        <v>706</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5294</v>
+        <v>5481</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.3382944576973959</v>
+        <v>0.338294457697396</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09156176867555374</v>
+        <v>0.09267688209970691</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6950534769855102</v>
+        <v>0.71964137086626</v>
       </c>
     </row>
     <row r="17">
@@ -1606,7 +1606,7 @@
         <v>3719</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.4889030083857274</v>
+        <v>0.4889030083857273</v>
       </c>
       <c r="H17" s="6" t="n">
         <v>0</v>
@@ -1621,16 +1621,16 @@
         <v>3221</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1169</v>
+        <v>1261</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>3897</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8266186611091575</v>
+        <v>0.8266186611091574</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2999552689045494</v>
+        <v>0.3234628833567135</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -1642,19 +1642,19 @@
         <v>5040</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2322</v>
+        <v>2135</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6919</v>
+        <v>6910</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6617055423026041</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3049465230144864</v>
+        <v>0.2803586291337402</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9084382313244462</v>
+        <v>0.9073231179002931</v>
       </c>
     </row>
     <row r="18">
@@ -2096,19 +2096,19 @@
         <v>4669</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1505</v>
+        <v>1604</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>10100</v>
+        <v>9997</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1915972259141038</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06175245821665759</v>
+        <v>0.06582226761861502</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4144314047783571</v>
+        <v>0.4102180077773293</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>13</v>
@@ -2117,19 +2117,19 @@
         <v>10419</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>6555</v>
+        <v>6798</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>13643</v>
+        <v>13669</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5875074923935328</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3696347068214734</v>
+        <v>0.3833272499444576</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7692958389302559</v>
+        <v>0.7707667883795449</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>18</v>
@@ -2138,19 +2138,19 @@
         <v>15088</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>9307</v>
+        <v>8891</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>22353</v>
+        <v>22148</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.3583459435200219</v>
+        <v>0.358345943520022</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2210396880691576</v>
+        <v>0.211155886355124</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5308818833818063</v>
+        <v>0.5260101808418316</v>
       </c>
     </row>
     <row r="26">
@@ -2167,19 +2167,19 @@
         <v>19702</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>14271</v>
+        <v>14374</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>22866</v>
+        <v>22767</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8084027740858962</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5855685952216431</v>
+        <v>0.5897819922226711</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9382475417833427</v>
+        <v>0.9341777323813852</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>11</v>
@@ -2188,19 +2188,19 @@
         <v>7315</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>4091</v>
+        <v>4065</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>11179</v>
+        <v>10936</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4124925076064671</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2307041610697441</v>
+        <v>0.2292332116204551</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6303652931785277</v>
+        <v>0.6166727500555425</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>24</v>
@@ -2209,19 +2209,19 @@
         <v>27017</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>19752</v>
+        <v>19957</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>32798</v>
+        <v>33214</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6416540564799781</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4691181166181936</v>
+        <v>0.4739898191581681</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7789603119308424</v>
+        <v>0.7888441136448763</v>
       </c>
     </row>
     <row r="27">
